--- a/documenten/issues.xlsx
+++ b/documenten/issues.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hackathondenbosch\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HackathonDenBosch\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B8E6FD59-B5EF-425B-A8E9-A1FB41ECDA89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{B8E6FD59-B5EF-425B-A8E9-A1FB41ECDA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DOCUMENT</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>this is an example</t>
+  </si>
+  <si>
+    <t>Login field inputs z-index</t>
+  </si>
+  <si>
+    <t>content/public/assets/css/style.css</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>Z-index of inputs in inlog screen are on top of the "login"</t>
   </si>
 </sst>
 </file>
@@ -411,21 +423,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319030C9-FE53-4A32-A7D3-F3E7250681D5}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -442,7 +454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -457,6 +469,20 @@
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/documenten/issues.xlsx
+++ b/documenten/issues.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\HackathonDenBosch\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\HackathonDenBosch\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DOCUMENT</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Z-index of inputs in inlog screen are on top of the "login"</t>
+  </si>
+  <si>
+    <t>Accounts en Settings table</t>
+  </si>
+  <si>
+    <t>content/public/controllers/register-controller.php</t>
+  </si>
+  <si>
+    <t>Werkt nie(kut)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +120,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -127,7 +136,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,16 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319030C9-FE53-4A32-A7D3-F3E7250681D5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.33203125" customWidth="1"/>
   </cols>
@@ -485,6 +494,23 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/documenten/issues.xlsx
+++ b/documenten/issues.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xampp\htdocs\HackathonDenBosch\documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hackathondenbosch\documenten\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7536" xr2:uid="{B8E6FD59-B5EF-425B-A8E9-A1FB41ECDA89}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{B8E6FD59-B5EF-425B-A8E9-A1FB41ECDA89}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>DOCUMENT</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>Werkt nie(kut)</t>
+  </si>
+  <si>
+    <t>Redirect</t>
+  </si>
+  <si>
+    <t>after register, redirect to other page</t>
+  </si>
+  <si>
+    <t>password view</t>
+  </si>
+  <si>
+    <t>bolletjes wanneer je wachtwoord in types</t>
+  </si>
+  <si>
+    <t>FIXED</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -120,7 +138,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,21 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319030C9-FE53-4A32-A7D3-F3E7250681D5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82.33203125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -462,8 +480,11 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,8 +500,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -494,7 +518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -509,6 +533,28 @@
       </c>
       <c r="E4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/documenten/issues.xlsx
+++ b/documenten/issues.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
